--- a/Práctica 1/Perceptrón multicapa/pruebas_perceptron_ramiro.xlsx
+++ b/Práctica 1/Perceptrón multicapa/pruebas_perceptron_ramiro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RamiroLealMeseguer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RamiroLealMeseguer/Desktop/CURSO20:21/RN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A57D65-55A3-F841-AB56-701588EA0FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E7228-9680-7340-A4BD-63AFB75E2B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="460" windowWidth="17480" windowHeight="9660" xr2:uid="{C0C4436E-F42A-E841-9D94-167DF61E69CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="160">
   <si>
     <t>Topologia</t>
   </si>
@@ -307,13 +307,211 @@
   </si>
   <si>
     <t>0.01157655</t>
+  </si>
+  <si>
+    <t>TrainMAE</t>
+  </si>
+  <si>
+    <t>ValidMAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TestMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TestMAE</t>
+  </si>
+  <si>
+    <t>0.01162175</t>
+  </si>
+  <si>
+    <t>0.07210528</t>
+  </si>
+  <si>
+    <t>0.01119372</t>
+  </si>
+  <si>
+    <t>0.07294193</t>
+  </si>
+  <si>
+    <t>0.01191488</t>
+  </si>
+  <si>
+    <t>0.07379681</t>
+  </si>
+  <si>
+    <t>*shufflePatterns = F</t>
+  </si>
+  <si>
+    <t>0.01207070</t>
+  </si>
+  <si>
+    <t>0.07172121</t>
+  </si>
+  <si>
+    <t>0.01173983</t>
+  </si>
+  <si>
+    <t>0.07300093</t>
+  </si>
+  <si>
+    <t>0.01208132</t>
+  </si>
+  <si>
+    <t>0.07294682</t>
+  </si>
+  <si>
+    <t>0.01328109</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.01160465</t>
+  </si>
+  <si>
+    <t>0.07086817</t>
+  </si>
+  <si>
+    <t>0.01150462</t>
+  </si>
+  <si>
+    <t>0.07267754</t>
+  </si>
+  <si>
+    <t>0.01187994</t>
+  </si>
+  <si>
+    <t>0.07248205</t>
+  </si>
+  <si>
+    <t>0.01110152</t>
+  </si>
+  <si>
+    <t>0.07026359</t>
+  </si>
+  <si>
+    <t>0.01133388</t>
+  </si>
+  <si>
+    <t>0.07234088</t>
+  </si>
+  <si>
+    <t>0.01228439</t>
+  </si>
+  <si>
+    <t>0.07370883</t>
+  </si>
+  <si>
+    <t>0.07636843</t>
+  </si>
+  <si>
+    <t>0.01262344</t>
+  </si>
+  <si>
+    <t>0.07683052</t>
+  </si>
+  <si>
+    <t>0.01293032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07638385 </t>
+  </si>
+  <si>
+    <t>0.01076873</t>
+  </si>
+  <si>
+    <t>0.06883514</t>
+  </si>
+  <si>
+    <t>0.01108681</t>
+  </si>
+  <si>
+    <t>0.07114052</t>
+  </si>
+  <si>
+    <t>0.01207832</t>
+  </si>
+  <si>
+    <t>0.07217895</t>
+  </si>
+  <si>
+    <t>0.01224114</t>
+  </si>
+  <si>
+    <t>0.07350992</t>
+  </si>
+  <si>
+    <t>0.01190407</t>
+  </si>
+  <si>
+    <t>0.07446000</t>
+  </si>
+  <si>
+    <t>0.01264915</t>
+  </si>
+  <si>
+    <t>0.07511191</t>
+  </si>
+  <si>
+    <t>0.01117727</t>
+  </si>
+  <si>
+    <t>0.07033370</t>
+  </si>
+  <si>
+    <t>0.01147745</t>
+  </si>
+  <si>
+    <t>0.07264595</t>
+  </si>
+  <si>
+    <t>0.01299535</t>
+  </si>
+  <si>
+    <t>0.07549467</t>
+  </si>
+  <si>
+    <t>0.01011918</t>
+  </si>
+  <si>
+    <t>0.06719828</t>
+  </si>
+  <si>
+    <t>0.01068399</t>
+  </si>
+  <si>
+    <t>0.07071566</t>
+  </si>
+  <si>
+    <t>0.01188168</t>
+  </si>
+  <si>
+    <t>0.07203496</t>
+  </si>
+  <si>
+    <t>0.01054087</t>
+  </si>
+  <si>
+    <t>0.06786071</t>
+  </si>
+  <si>
+    <t>0.01151166</t>
+  </si>
+  <si>
+    <t>0.07098983</t>
+  </si>
+  <si>
+    <t>0.01235395</t>
+  </si>
+  <si>
+    <t>0.07290378</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +531,13 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,13 +603,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +635,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,88 +965,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAC004B-C208-9E49-8599-70D90B40B644}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="A25:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="5">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1"/>
@@ -836,25 +1054,25 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1"/>
@@ -862,25 +1080,25 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
@@ -888,556 +1106,964 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="12">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="12">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="11">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="15">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="12">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="12">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="12" t="s">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="12">
-        <v>9</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
+      <c r="C18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="11">
+        <v>9</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="12" t="s">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="12">
-        <v>9</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="C19" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="11">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15" t="s">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="15">
-        <v>9</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="14">
+        <v>9</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="15">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="14">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15" t="s">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="15">
-        <v>9</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="12" t="s">
+      <c r="C22" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="14">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="15">
-        <v>9</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="C23" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="14">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>3000</v>
       </c>
-      <c r="D24" s="10">
-        <v>9</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="9">
+        <v>9</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="12" t="s">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>3000</v>
       </c>
-      <c r="D25" s="12">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="11">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>4000</v>
       </c>
-      <c r="D26" s="10">
-        <v>9</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="9">
+        <v>9</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="10">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="22">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="22">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" t="s">
+        <v>153</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="22">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="24">
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
@@ -1448,10 +2074,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
